--- a/project/uploads/93/split_output/15图层.xlsx
+++ b/project/uploads/93/split_output/15图层.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C43CF5F-C8B6-4FA0-8DE7-9CBEAFA1C628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76E8B96B-F747-4918-B90B-B74D1AA82704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{F04A9CEF-28C5-4642-8A92-F94E0B04D9C7}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="8170" xr2:uid="{78F6DFB2-2700-45E9-89D1-7D49FA53FF90}"/>
   </bookViews>
   <sheets>
     <sheet name="15图层" sheetId="1" r:id="rId1"/>
@@ -1840,7 +1840,7 @@
         <xdr:cNvPr id="2" name="文本框 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55161370-7D0C-4F7C-A48E-B76FABBBC050}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118C3850-59CE-4BB9-B981-4F17DD2DCEA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1848,8 +1848,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2184400" y="553720"/>
-          <a:ext cx="3693160" cy="990600"/>
+          <a:off x="2181860" y="563880"/>
+          <a:ext cx="3693160" cy="1016000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1913,7 +1913,7 @@
         <xdr:cNvPr id="3" name="文本框 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17864AAB-EA03-46F1-848D-B6D12949EF61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C80B9FE-A90F-4535-846C-26B39A0A723F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1921,8 +1921,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2184400" y="2854960"/>
-          <a:ext cx="3693160" cy="990600"/>
+          <a:off x="2181860" y="2919730"/>
+          <a:ext cx="3693160" cy="1016000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7664,7 +7664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBEED1B-387B-49E4-B898-A2246C46BF62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3D2136-47C6-4A37-88A1-EE59ACDEA3DE}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -7674,15 +7674,15 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="7.59765625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="7.58203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="41.5" style="14" customWidth="1"/>
-    <col min="4" max="4" width="49.59765625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="49.58203125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -7710,70 +7710,70 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="9"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="9"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
       <c r="D5" s="9"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
       <c r="D6" s="9"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="9"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
@@ -7786,7 +7786,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
@@ -7794,83 +7794,83 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
@@ -7879,7 +7879,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F1" location="目录!A1" display="返回" xr:uid="{7A165FDB-4FE6-4F4D-A1A8-5BE35B2CC676}"/>
+    <hyperlink ref="F1" location="目录!A1" display="返回" xr:uid="{A8A2E81A-0A84-40CC-B744-E8FF52DDC930}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
